--- a/src/main/resources/static/excel/excelTemplate.xlsx
+++ b/src/main/resources/static/excel/excelTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taguchiriki/Desktop/kintai-app/src/main/resources/static/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taguchiriki/Desktop/明光/勤怠管理システム/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA95E0C8-960C-E244-B043-754A4D6CF509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A84689-44C1-3948-8AFC-927B0EA58F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{AFEC8D29-96A5-F04E-95E1-22C69962E9CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>教室名</t>
     <rPh sb="0" eb="3">
@@ -287,6 +287,26 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>カイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月26日</t>
+    <rPh sb="0" eb="1">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月25日</t>
+    <rPh sb="0" eb="1">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニティ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -612,10 +632,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,21 +699,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D5758D-8E5A-9947-BE1D-E1629BCEDC15}">
   <dimension ref="A1:AU43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB49" sqref="AB49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1034,175 +1054,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="40" customHeight="1" thickBot="1">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="19" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="19" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="19" t="s">
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="26"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="31"/>
     </row>
     <row r="2" spans="1:47" ht="24" customHeight="1"/>
     <row r="3" spans="1:47" ht="24" customHeight="1" thickBot="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27" t="s">
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="28" t="s">
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="27" t="s">
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AK3" s="15" t="s">
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AK3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16" t="s">
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16" t="s">
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
     </row>
     <row r="4" spans="1:47" ht="40" customHeight="1" thickTop="1">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="31"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
     </row>
     <row r="5" spans="1:47" ht="24" customHeight="1"/>
     <row r="6" spans="1:47" ht="20" customHeight="1">
@@ -1221,7 +1245,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="2"/>
@@ -1244,7 +1268,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="13" t="s">
+      <c r="Z6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="AA6" s="2"/>
@@ -1375,10 +1399,10 @@
       <c r="W8" s="5"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="35"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="16"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
@@ -1426,10 +1450,10 @@
       <c r="W9" s="5"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="35"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="16"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
@@ -1477,10 +1501,10 @@
       <c r="W10" s="5"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="35"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="16"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
@@ -1528,10 +1552,10 @@
       <c r="W11" s="5"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="7"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="35"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="16"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
@@ -1579,10 +1603,10 @@
       <c r="W12" s="5"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="35"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="16"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
@@ -1630,10 +1654,10 @@
       <c r="W13" s="5"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="35"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="16"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
@@ -1681,10 +1705,10 @@
       <c r="W14" s="5"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="35"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="16"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
@@ -1732,10 +1756,10 @@
       <c r="W15" s="5"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="35"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="16"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
@@ -1783,10 +1807,10 @@
       <c r="W16" s="5"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="35"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="16"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
@@ -1834,10 +1858,10 @@
       <c r="W17" s="5"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="35"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="16"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
@@ -1885,10 +1909,10 @@
       <c r="W18" s="5"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="35"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="16"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
@@ -1936,10 +1960,10 @@
       <c r="W19" s="5"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="7"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="35"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="16"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
@@ -1987,10 +2011,10 @@
       <c r="W20" s="5"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="35"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="16"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
@@ -2038,10 +2062,10 @@
       <c r="W21" s="5"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="35"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="16"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
@@ -2089,10 +2113,10 @@
       <c r="W22" s="5"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="35"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="16"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
@@ -2140,10 +2164,10 @@
       <c r="W23" s="5"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="35"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="16"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
@@ -2191,10 +2215,10 @@
       <c r="W24" s="5"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="35"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="16"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
@@ -2242,10 +2266,10 @@
       <c r="W25" s="5"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="35"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="16"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
@@ -2293,10 +2317,10 @@
       <c r="W26" s="5"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="35"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="16"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
@@ -2344,10 +2368,10 @@
       <c r="W27" s="5"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="35"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="16"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
@@ -2395,10 +2419,10 @@
       <c r="W28" s="5"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="35"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="16"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
@@ -2446,10 +2470,10 @@
       <c r="W29" s="5"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="7"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="35"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="16"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
@@ -2497,10 +2521,10 @@
       <c r="W30" s="5"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="7"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="35"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="16"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -2548,10 +2572,10 @@
       <c r="W31" s="5"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="7"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="35"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="16"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
@@ -2599,10 +2623,10 @@
       <c r="W32" s="5"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="7"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="35"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="16"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
@@ -2650,10 +2674,10 @@
       <c r="W33" s="5"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="7"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="35"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="16"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
@@ -2701,10 +2725,10 @@
       <c r="W34" s="5"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="7"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="35"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="16"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
@@ -2752,10 +2776,10 @@
       <c r="W35" s="5"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="7"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="35"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="16"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
@@ -2803,10 +2827,10 @@
       <c r="W36" s="5"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="7"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="35"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="16"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
@@ -2854,10 +2878,10 @@
       <c r="W37" s="5"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="7"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="35"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="16"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
@@ -2905,10 +2929,10 @@
       <c r="W38" s="5"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="7"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="35"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="16"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
@@ -2956,10 +2980,10 @@
       <c r="W39" s="5"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="7"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="35"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="16"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
@@ -3007,10 +3031,10 @@
       <c r="W40" s="5"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="7"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="35"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="16"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
@@ -3058,10 +3082,10 @@
       <c r="W41" s="5"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="7"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="35"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="16"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
@@ -3109,10 +3133,10 @@
       <c r="W42" s="5"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="7"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="35"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="16"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
@@ -3160,10 +3184,10 @@
       <c r="W43" s="5"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="7"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="35"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="16"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
@@ -3885,14 +3909,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="T4:W4"/>
     <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
@@ -3908,12 +3924,22 @@
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:M7"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="T4:W4"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="AD8:AG8"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:O4"/>
@@ -3926,15 +3952,6 @@
     <mergeCell ref="AK3:AM4"/>
     <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:M7"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="R6:S7"/>
     <mergeCell ref="T6:Y6"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:W7"/>
@@ -3942,6 +3959,11 @@
     <mergeCell ref="Z6:AA7"/>
     <mergeCell ref="AP6:AQ7"/>
     <mergeCell ref="AR6:AS7"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AD8:AG8"/>
     <mergeCell ref="AT6:AU7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F8:H8"/>
@@ -3964,6 +3986,8 @@
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="B6:E7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="R6:S7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
